--- a/주간보고서/주간보고서_0801_박상도.xlsx
+++ b/주간보고서/주간보고서_0801_박상도.xlsx
@@ -56,18 +56,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 데이터 정제 및 전처리
+2. 데이터 분석
+3. UML 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 메인 페이지 UI/UX 개발 완료
 2. 최적 경로 안내 페이지 UI/UX 개발 완료
 3. 도로·기상 데이터 수집 완료
-4. 교통 데이터 수집 중(70%)
+4. 교통 데이터 수집 중(75%) -&gt; 23년 1~9월까지 수집 완료
 5. ERD 설계 완료
-6. 데이터 전처리 작업 중(20%) -&gt; 23년 1~9월까지의 교통 데이터와 기상 데이터 결합 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 데이터 정제 및 전처리
-2. 데이터 분석
-3. UML 작성</t>
+6. 데이터 전처리 작업 중(50%) -&gt; 23년 1~6월까지의 교통 데이터와 기상 데이터 결합 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +473,7 @@
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -536,10 +536,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>8</v>

--- a/주간보고서/주간보고서_0801_박상도.xlsx
+++ b/주간보고서/주간보고서_0801_박상도.xlsx
@@ -50,12 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 교통 데이터가 API로 제공되어 일괄 수집이 불가, 데이터 수집 작업이 딜레이될 것으로 예상됨.
-2. 데이터 수집 작업 진행하며 ERD 설계 작업 우선 진행함
-3. 기존 도로 데이터의 양식이 현재 공공기관의 양식과 상이해 새 버전의 도로 데이터를 수집하였음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 데이터 정제 및 전처리
 2. 데이터 분석
 3. UML 작성</t>
@@ -68,6 +62,12 @@
 4. 교통 데이터 수집 중(75%) -&gt; 23년 1~9월까지 수집 완료
 5. ERD 설계 완료
 6. 데이터 전처리 작업 중(50%) -&gt; 23년 1~6월까지의 교통 데이터와 기상 데이터 결합 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 교통 데이터가 API로 제공되어 일괄 수집이 불가, 데이터 수집 작업이 딜레이될 것으로 예상됨.
+2. 데이터 수집 작업 진행하며 ERD 설계 작업 우선 진행함
+3. 기존 도로 데이터의 양식이 현재 공공기관의 양식과 상이해 새 버전의 도로 데이터(240325)를 수집해 재작업하였음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,13 +536,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/주간보고서/주간보고서_0801_박상도.xlsx
+++ b/주간보고서/주간보고서_0801_박상도.xlsx
@@ -56,18 +56,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 교통 데이터(분 단위) 제공 서비스가 없어, 관련 기관에 데이터 청구 신청함. 응답 전까지 ERD 설계 작업 우선 진행하였음.
+2. 기존 도로 데이터(ver2022)의 양식이 현재 공공기관의 양식과 상이해 새 버전의 도로 데이터(ver2024)를 수집해 재작업하였음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 메인 페이지 UI/UX 개발 완료
 2. 최적 경로 안내 페이지 UI/UX 개발 완료
 3. 도로·기상 데이터 수집 완료
-4. 교통 데이터 수집 중(75%) -&gt; 23년 1~9월까지 수집 완료
-5. ERD 설계 완료
-6. 데이터 전처리 작업 중(50%) -&gt; 23년 1~6월까지의 교통 데이터와 기상 데이터 결합 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 교통 데이터가 API로 제공되어 일괄 수집이 불가, 데이터 수집 작업이 딜레이될 것으로 예상됨.
-2. 데이터 수집 작업 진행하며 ERD 설계 작업 우선 진행함
-3. 기존 도로 데이터의 양식이 현재 공공기관의 양식과 상이해 새 버전의 도로 데이터(240325)를 수집해 재작업하였음.</t>
+4. 교통 데이터 수집 중(10%) -&gt; 교통 데이터 청구 신청 완료, 1일 이상 소요 예상
+5. ERD 설계 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,13 +534,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/주간보고서/주간보고서_0801_박상도.xlsx
+++ b/주간보고서/주간보고서_0801_박상도.xlsx
@@ -56,16 +56,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 교통 데이터(분 단위) 제공 서비스가 없어, 관련 기관에 데이터 청구 신청함. 응답 전까지 ERD 설계 작업 우선 진행하였음.
-2. 기존 도로 데이터(ver2022)의 양식이 현재 공공기관의 양식과 상이해 새 버전의 도로 데이터(ver2024)를 수집해 재작업하였음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 메인 페이지 UI/UX 개발 완료
 2. 최적 경로 안내 페이지 UI/UX 개발 완료
 3. 도로·기상 데이터 수집 완료
 4. 교통 데이터 수집 중(10%) -&gt; 교통 데이터 청구 신청 완료, 1일 이상 소요 예상
 5. ERD 설계 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 개방된 교통 데이터(분 단위)가 없어, 관련 기관에 데이터 청구 신청함. 응답 전까지 ERD 설계 작업 우선 진행하였음.
+2. 기존 도로 데이터(ver2022)의 양식이 현재 공공기관의 양식과 상이해 새 버전의 도로 데이터(ver2024)를 수집해 재작업하였음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +471,7 @@
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -534,13 +534,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
